--- a/medicine/Handicap/Éducation_spécialisée_en_France/Éducation_spécialisée_en_France.xlsx
+++ b/medicine/Handicap/Éducation_spécialisée_en_France/Éducation_spécialisée_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ducation_sp%C3%A9cialis%C3%A9e_en_France</t>
+          <t>Éducation_spécialisée_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'éducation spécialisée en France s'est d'abord concentrée sur l'enfance dite inadaptée avant de s'élargir à tous les domaines de l’éducation spécialisée (handicap, insertion sociale, protection de l'enfance, etc.).  
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ducation_sp%C3%A9cialis%C3%A9e_en_France</t>
+          <t>Éducation_spécialisée_en_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">La protection de l'enfance
-Les articles 375 et suivants du Code civil français
-(section mise à jour le 14/03/08 à partir du site légifrance)
+          <t>La protection de l'enfance</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Les articles 375 et suivants du Code civil français</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(section mise à jour le 14/03/08 à partir du site légifrance)
 Cette série d'articles organise la protection de l'enfance dans le droit français. De fait, elle crée les différents services prenant en charge les jeunes rencontrant des difficultés sociales et éducatives.
 Article 375
 Modifié par la Loi no 2007-293 du 5 mars 2007 - art. 14 () JORF 6 mars 2007.
@@ -542,13 +562,126 @@
 à un service ou à un établissement habilité pour l'accueil de mineurs à la journée ou suivant toute autre modalité de prise en charge ;
 à un service ou à un établissement sanitaire ou d'éducation, ordinaire ou spécialisé.
 Toutefois, lorsqu'une requête en divorce a été présentée ou un jugement de divorce rendu entre les père et mère ou lorsqu'une requête en vue de statuer sur la résidence et les droits de visite afférents à un enfant a été présentée ou une décision rendue entre les père et mère, ces mesures ne peuvent être prises que si un fait nouveau de nature à entraîner un danger pour le mineur s'est révélé postérieurement à la décision statuant sur les modalités de l'exercice de l'autorité parentale ou confiant l'enfant à un tiers. Elles ne peuvent faire obstacle à la faculté qu'aura le juge aux affaires familiales de décider, par application de l'article 373-3, à qui l'enfant devra être confié. Les mêmes règles sont applicables à la séparation de corps. »
-L'action éducative en milieu ouvert
-L'AEMO est une mesure judiciaire civile (ordonnée par le juge des enfants) au bénéfice d'un ou de plusieurs enfants d'une même famille. Elle consiste en l'intervention à domicile d'un travailleur social pour une durée variable (de 6 mois à 2 ans renouvelable jusqu'aux 18 ans de l'enfant).
-Les maisons d'enfants à caractère social
-Les Maisons d'enfants à caractère social (MECS) sont des structures qui relèvent du champ de l'assistance éducative. Les maisons d'enfants accueillent des enfants soit au titre d'une ordonnance du juge des enfants (mesure judiciaire) soit au terme d'un contrat passé entre les parents et l'Aide sociale à l'enfance (ASE) (mesure administrative).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Éducation_spécialisée_en_France</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ducation_sp%C3%A9cialis%C3%A9e_en_France</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Les différentes formes actuelles de l'éducation spécialisée</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La protection de l'enfance</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>L'action éducative en milieu ouvert</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'AEMO est une mesure judiciaire civile (ordonnée par le juge des enfants) au bénéfice d'un ou de plusieurs enfants d'une même famille. Elle consiste en l'intervention à domicile d'un travailleur social pour une durée variable (de 6 mois à 2 ans renouvelable jusqu'aux 18 ans de l'enfant).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Éducation_spécialisée_en_France</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ducation_sp%C3%A9cialis%C3%A9e_en_France</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les différentes formes actuelles de l'éducation spécialisée</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La protection de l'enfance</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Les maisons d'enfants à caractère social</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Maisons d'enfants à caractère social (MECS) sont des structures qui relèvent du champ de l'assistance éducative. Les maisons d'enfants accueillent des enfants soit au titre d'une ordonnance du juge des enfants (mesure judiciaire) soit au terme d'un contrat passé entre les parents et l'Aide sociale à l'enfance (ASE) (mesure administrative).
 Les MECS sont des établissements d’accueil pour des enfants, adolescents et jeunes majeurs, en fonctionnement continu. Par délégation, elles participent au service public de la Protection de l'enfance et de la Famille. Elles sont sous la compétence des conseils départementaux et sont financés par eux dans le cadre d’une habilitation, sous la forme d’un prix de journée. À la différence des Foyers de l'Enfance, les séjours sont plus souvent de longue durée.
-La prévention spécialisée
-La Prévention Spécialisée est une forme d’intervention sociale placée sous la responsabilité du conseil départemental depuis la loi de décentralisation du 6 janvier 1986. Inscrite dans le Code de l’action sociale et des familles, elle est une prestation de l’Aide sociale à l’enfance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Éducation_spécialisée_en_France</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ducation_sp%C3%A9cialis%C3%A9e_en_France</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les différentes formes actuelles de l'éducation spécialisée</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La prévention spécialisée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Prévention Spécialisée est une forme d’intervention sociale placée sous la responsabilité du conseil départemental depuis la loi de décentralisation du 6 janvier 1986. Inscrite dans le Code de l’action sociale et des familles, elle est une prestation de l’Aide sociale à l’enfance.
 Cette action vise à rompre avec l’isolement et restaurer le lien social des jeunes en voie de marginalisation. Dernier recours face à l’échec des autres démarches éducatives institutionnelles, elle vise à favoriser la reconstruction des liens sociaux, une meilleure intégration des jeunes en rupture, la lutte contre l’exclusion sous toutes ses formes. 
 Elle se caractérise par :
 le non-mandat nominatif ;
@@ -556,8 +689,43 @@
 le respect de l'anonymat.
 Principalement tournée vers les jeunes de 16 à 25 ans, elle peut, selon les départements, s'adresser à des plus jeunes.
 Les éducateurs de prévention, généralement des éducateurs spécialisés, vont à la rencontre des jeunes dans leurs lieux de rencontre. Ils sont de ce fait régulièrement appelés « éducateurs de rue ».
-Les instituts médico-éducatifs
-La base juridique qui réglemente le fonctionnement des IME est le Code de l'Action Sociale et de la Famille, depuis l'abrogation des annexes XXIV en 2004 (décret 2004-1136 du 21 octobre 2004 - art 4 4°).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Éducation_spécialisée_en_France</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ducation_sp%C3%A9cialis%C3%A9e_en_France</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les différentes formes actuelles de l'éducation spécialisée</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les instituts médico-éducatifs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La base juridique qui réglemente le fonctionnement des IME est le Code de l'Action Sociale et de la Famille, depuis l'abrogation des annexes XXIV en 2004 (décret 2004-1136 du 21 octobre 2004 - art 4 4°).
 Les IME (instituts médico éducatifs) regroupent des SEES (Service d’Éducation et d'Enseignement Spécialisés) et des SIPFP (Section d'Initiation et de Première Formation Professionnelle). Ils accueillent des enfants et adolescents de 6 à 20 ans présentant une déficience intellectuelle. Depuis la loi du 11 février 2005, la Commission des Droits et de l'Autonomie de la Personne Handicapée (CDAPH, anciennement CDES et COTOREP), après évaluation par l'équipe pluridisciplinaire, propose aux parents de ces enfants une orientation dans les établissements d'éducation spécialisée. Ces établissements peuvent aussi accueillir des sections pour enfants polyhandicapés ainsi que des internats permanents ou de semaine.
 Les I.M.E. proposent des prises en charge individuelles et pluridisciplinaires faisant intervenir plusieurs catégories professionnelles :
 éducateurs spécialisés,
@@ -583,68 +751,111 @@
 La mission des IME est d'apporter un accompagnement thérapeutique, pédagogique, éducatif et professionnel.
 Depuis la loi 2002-2 (loi du 2 janvier 2002 rénovant l'action sociale et médico-sociale), chaque prise en charge est basée sur un projet personnel individualisé (PPI). Selon les besoins de chaque usager, des activités éducatives, d'apprentissages professionnels, des prises en charge médicales ou paramédicales sont mises en œuvre pour le développement de la personnalité, accéder à une socialisation plus importante, favoriser l'insertion sociale et professionnelle et favoriser l'autonomie.
 Ces établissements ont souvent été créés à l’initiative de familles concernées personnellement par le handicap mental. Même s’ils sont désormais à financement quasi exclusivement public, après agrément par la CROMS et avis favorable des financeurs (ex: DDASS) la grande majorité des IME restent à gestion associative (association loi de 1901).
-Institut thérapeutique éducatif et pédagogique (ITEP)
-Anciennement nommé institut de rééducation (IR), c'est un institut qui accueille des enfants en internat ou en journée, ayant des troubles du comportement ne leur permettant pas d'intégrer un institut scolaire ordinaire. Cet institut offre principalement des services pédagogiques (école) et éducatives (éducateurs spécialisés, etc.) adaptés aux troubles de ces jeunes.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89ducation_sp%C3%A9cialis%C3%A9e_en_France</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Éducation_spécialisée_en_France</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89ducation_sp%C3%A9cialis%C3%A9e_en_France</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les différentes formes actuelles de l'éducation spécialisée</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les instituts médico-éducatifs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Institut thérapeutique éducatif et pédagogique (ITEP)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anciennement nommé institut de rééducation (IR), c'est un institut qui accueille des enfants en internat ou en journée, ayant des troubles du comportement ne leur permettant pas d'intégrer un institut scolaire ordinaire. Cet institut offre principalement des services pédagogiques (école) et éducatives (éducateurs spécialisés, etc.) adaptés aux troubles de ces jeunes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Éducation_spécialisée_en_France</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ducation_sp%C3%A9cialis%C3%A9e_en_France</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Référentiel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le métier d'éducateur spécialisé ainsi que les conditions de certification et de formation sont définis en France par un référentiel professionnel annexé à l'arrêté du 20 juin 2007 relatif au diplôme d’État d'éducateur spécialisé[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le métier d'éducateur spécialisé ainsi que les conditions de certification et de formation sont définis en France par un référentiel professionnel annexé à l'arrêté du 20 juin 2007 relatif au diplôme d’État d'éducateur spécialisé.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89ducation_sp%C3%A9cialis%C3%A9e_en_France</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Éducation_spécialisée_en_France</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89ducation_sp%C3%A9cialis%C3%A9e_en_France</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Représentativité professionnelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, la profession est représentée par l'Organisation nationale des éducateurs spécialisés (ONES), association loi 1901.
 C'est en 2007 que l'ONES voit le jour sous l'impulsion d'étudiants en formation initiale d’éducateur spécialisé de l’IREIS de Bourg-en-Bresse. Son principal but est alors de « défendre la formation, le diplôme et le métier, mais également de développer une réflexion sur la pratique éducative, l'éthique ou la déontologie professionnelle sur la base d'un travail en réseau constitué par un maillage de relais régionaux ».
@@ -654,33 +865,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89ducation_sp%C3%A9cialis%C3%A9e_en_France</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Éducation_spécialisée_en_France</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89ducation_sp%C3%A9cialis%C3%A9e_en_France</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Éthique professionnelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2008, l'Organisation Nationale des Éducateurs Spécialisés travaille à l'élaboration et à la rédaction d'un projet de charte d'éthique professionnelle[2].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2008, l'Organisation Nationale des Éducateurs Spécialisés travaille à l'élaboration et à la rédaction d'un projet de charte d'éthique professionnelle.
 La constitution d’une charte d’éthique a été inscrite dès l’origine aux statuts de l’ONES par ses membres fondateurs. 
 Ce projet s’est concrétisé autour de l’idée de réfléchir aux principes fondamentaux du métier d’éducateur spécialisé déterminé lui-même par l’intérêt des usagers. Pour les éducateurs spécialisés ayant tout au long de ce travail participé au projet, la Charte d’éthique ne devait pas répondre à des impératifs de bonnes où mauvaises conduites. Il ne s’agissait pas non plus d’énoncer dans un document référence de nouvelles normes devant s’appliquer aux éducateurs spécialisés.
 Pour l’ONES, il était particulièrement important de ne pas tomber dans une construction philosophique, religieuse ou théorique mais bien de traduire une visée concrète permettant de donner des points de repères qui puissent soutenir les professionnels au quotidien. Il était d’autre part essentiel de trouver une forme qui traduise non pas une photographie figée de ce qu’est l’éthique des éducateurs spécialisés, mais de ce que devient cette 
@@ -688,7 +901,7 @@
 L’ONES constate que l’éthique est ces dernières années trop souvent mise à mal par de nouvelles logiques gestionnaires, administratives ou organisationnelles. Le respect de la loi n’assure pas obligatoirement de la justesse, ou des actions suffisamment bonnes. La loi fait à minima cohésion et cohérence dans une société. La Charte d’éthique appelle à des pratiques qui vont presque toujours au-delà de ce que propose la loi et les réglementations.
 Elle appelle à des pratiques qui vont presque toujours au-delà de ce que propose la loi et les réglementations puisque le respect de la loi ne peut assurer à lui seul des actions de qualités réflexives. La Charte d’éthique ne garantit aucun résultat, aucune efficacité, mais offre un socle fondateur à partir duquel les éducateurs spécialisés peuvent légitimer leurs démarches et mieux lutter contre certaines dérives.
 Elle n’a rien d’une recette. Elle appelle au contraire à l’éthique de chacun pour faire question, se confronter aux problèmes, aussi difficiles et imprévisibles qu’ils soient.
-La Charte d’éthique professionnelle émane d’éducateurs spécialisés issus de différents secteurs (handicap, protection de l’enfance, exclusion sociale…). Sa rédaction s’est achevée fin 2013 après  avoir été présentée à la commission éthique du CSTS. Elle appartient à tous les éducateurs spécialisés[3].
+La Charte d’éthique professionnelle émane d’éducateurs spécialisés issus de différents secteurs (handicap, protection de l’enfance, exclusion sociale…). Sa rédaction s’est achevée fin 2013 après  avoir été présentée à la commission éthique du CSTS. Elle appartient à tous les éducateurs spécialisés.
 </t>
         </is>
       </c>
